--- a/CZ529/CZ529_Files_Manifest.xlsx
+++ b/CZ529/CZ529_Files_Manifest.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnhandley/Documents/PaleontologyResearch/Oysters/HOBS/Contract Work 2/Deliverables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnhandley/Documents/PaleontologyResearch/Oysters/HOBS/Contract Work 2/Deliverables/CZ529_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C289CA18-EEE4-E840-A27F-B3514D99EA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33D5036-87C8-D14A-895D-275A963C3889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="2980" windowWidth="28040" windowHeight="17440" xr2:uid="{F9CB55BF-DFA8-174B-8466-51569BC628DA}"/>
+    <workbookView xWindow="2120" yWindow="2200" windowWidth="33720" windowHeight="17820" xr2:uid="{F9CB55BF-DFA8-174B-8466-51569BC628DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Shiny App Files" sheetId="2" r:id="rId2"/>
+    <sheet name="Full Res Tiff Depth Files" sheetId="3" r:id="rId3"/>
+    <sheet name="Covariate Plots" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="436">
   <si>
     <t>File</t>
   </si>
@@ -110,18 +113,12 @@
     <t>stan code for basic linear random effects model for comparison with spatial models</t>
   </si>
   <si>
-    <t>CZ529_Data_for_Shiny: https://drive.google.com/drive/folders/1D-fFOgEhiQs5_vGPXjsEBlnro4znt7b6?usp=share_link</t>
-  </si>
-  <si>
     <t>.RDS and .tiff</t>
   </si>
   <si>
     <t>Modeling results, sample data, managed area oyster reefs and tif file for depths, all for the Shiny app.</t>
   </si>
   <si>
-    <t>CZ529_Task1_Full_Res_Depth_tiff_files: https://drive.google.com/drive/folders/1D-fFOgEhiQs5_vGPXjsEBlnro4znt7b6?usp=share_link</t>
-  </si>
-  <si>
     <t>Full resolution GeoTiff files with depth information for each managed area (11GB total)</t>
   </si>
   <si>
@@ -131,15 +128,9 @@
     <t>,png</t>
   </si>
   <si>
-    <t>CZ529_Task_1_covariate_results_plots: https://drive.google.com/drive/folders/1mTEI8_LPIDmC8c6Q-Wl0Z09RN5OmmAJK?usp=sharing</t>
-  </si>
-  <si>
     <t>Plots for covariate fits: all managed areas x all parameters x all covariates</t>
   </si>
   <si>
-    <t>CZ529 Workflow Feedback Meeting 1: https://drive.google.com/drive/folders/1mTEI8_LPIDmC8c6Q-Wl0Z09RN5OmmAJK?usp=sharing</t>
-  </si>
-  <si>
     <t>.mp4, .docx,.txt</t>
   </si>
   <si>
@@ -149,9 +140,6 @@
     <t>Video, audio, transcripts and AI Companion summary of second set of meetings with stakeholders</t>
   </si>
   <si>
-    <t>CZ529 Workflow Feedback Meeting 2: Video, audio, transcripts and AI Companion summary of first set of meetings with stakeholders</t>
-  </si>
-  <si>
     <t>Gets GeoTiff bathymetry data for each managed area (and GTMNERR subareas) and stiches tiles  togther into one file for each area. Also saves a lower res version for the Shiny app.</t>
   </si>
   <si>
@@ -162,13 +150,1329 @@
   </si>
   <si>
     <t>Text for scrollable text box in Shiny UI</t>
+  </si>
+  <si>
+    <t>Short name</t>
+  </si>
+  <si>
+    <t>Long name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ABAP_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Apalachicola_Bay_Aquatic_Preserve_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Modeling results, sample data, managed area shapefiles for oyster reefs for the Shiny app</t>
+  </si>
+  <si>
+    <t>ABAP_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Apalachicola_Bay_Aquatic_Preserve_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>ABAP_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Apalachicola_Bay_Aquatic_Preserve_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>ABAP_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Apalachicola_Bay_Aquatic_Preserve_depth_map.tif</t>
+  </si>
+  <si>
+    <t>GeoTiff file for depths for the Shiny app.</t>
+  </si>
+  <si>
+    <t>ANERR_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Apalachicola_National_Estuarine_Research_Reserve_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>ANERR_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Apalachicola_National_Estuarine_Research_Reserve_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>ANERR_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Apalachicola_National_Estuarine_Research_Reserve_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>ANERR_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Apalachicola_National_Estuarine_Research_Reserve_depth_map.tif</t>
+  </si>
+  <si>
+    <t>EBAP_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Estero_Bay_Aquatic_Preserve_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>EBAP_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Estero_Bay_Aquatic_Preserve_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>EBAP_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Estero_Bay_Aquatic_Preserve_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>EBAP_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Estero_Bay_Aquatic_Preserve_depth_map.tif</t>
+  </si>
+  <si>
+    <t>GRMAP_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_River_Marsh_Aquatic_Preserve_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GRMAP_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_River_Marsh_Aquatic_Preserve_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GRMAP_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_River_Marsh_Aquatic_Preserve_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GRMAP_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Guana_River_Marsh_Aquatic_Preserve_depth_map.tif</t>
+  </si>
+  <si>
+    <t>GTMNERRBB_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Butler_Beach_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GTMNERRBB_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Butler_Beach_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GTMNERRBB_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Butler_Beach_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GTMNERRBB_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Butler_Beach_depth_map.tif</t>
+  </si>
+  <si>
+    <t>GTMNERRFM_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Fort_Matanzas_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GTMNERRFM_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Fort_Matanzas_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GTMNERRFM_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Fort_Matanzas_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GTMNERRFM_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Fort_Matanzas_depth_map.tif</t>
+  </si>
+  <si>
+    <t>GTMNERRGR_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Guana_River_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GTMNERRGR_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Guana_River_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GTMNERRGR_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Guana_River_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GTMNERRGR_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Guana_River_depth_map.tif</t>
+  </si>
+  <si>
+    <t>GTMNERRPF_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Pellicer_Flats_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GTMNERRPF_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Pellicer_Flats_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GTMNERRPF_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Pellicer_Flats_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GTMNERRPF_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Pellicer_Flats_depth_map.tif</t>
+  </si>
+  <si>
+    <t>GTMNERRSA_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GTMNERRSA_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Salt_Run_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GTMNERRSA_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Salt_Run_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GTMNERRSA_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Salt_Run_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GTMNERRSR_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Salt_Run_depth_map.tif</t>
+  </si>
+  <si>
+    <t>GTMNERRSR_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GTMNERRSR_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_St_Augustine_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GTMNERRSR_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_St_Augustine_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GTMNERRTR_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_St_Augustine_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GTMNERRTR_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_St_Augustine_depth_map.tif</t>
+  </si>
+  <si>
+    <t>GTMNERRTR_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Tolomato_River_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GTMNERRTR_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Tolomato_River_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GTMNERR_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Tolomato_River_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>GTMNERR_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Tolomato_River_depth_map.tif</t>
+  </si>
+  <si>
+    <t>GTMNERR_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_depth_map.tif</t>
+  </si>
+  <si>
+    <t>IRVBFPAP_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Indian_River-Vero_Beach_to_Ft._Pierce_Aquatic_Preserve_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>IRVBFPAP_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Indian_River-Vero_Beach_to_Ft._Pierce_Aquatic_Preserve_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>IRVBFPAP_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Indian_River-Vero_Beach_to_Ft._Pierce_Aquatic_Preserve_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>IRVBFPAP_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Indian_River-Vero_Beach_to_Ft._Pierce_Aquatic_Preserve_depth_map.tif</t>
+  </si>
+  <si>
+    <t>JBJIAP_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Jensen_Beach_to_Jupiter_Inlet_Aquatic_Preserve_depth_map.tif</t>
+  </si>
+  <si>
+    <t>LBAP_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Lemon_Bay_Aquatic_Preserve_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>LBAP_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Lemon_Bay_Aquatic_Preserve_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>LBAP_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Lemon_Bay_Aquatic_Preserve_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>LBAP_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Lemon_Bay_Aquatic_Preserve_depth_map.tif</t>
+  </si>
+  <si>
+    <t>PISAP_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Pine_Island_Sound_Aquatic_Preserve_Density_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>PISAP_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Pine_Island_Sound_Aquatic_Preserve_Percent_Live_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>PISAP_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>Pine_Island_Sound_Aquatic_Preserve_Shell_Height_shiny_store.RDS</t>
+  </si>
+  <si>
+    <t>PISAP_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Pine_Island_Sound_Aquatic_Preserve_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Apalachicola_Bay_Aquatic_Preserve_full_res_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Apalachicola_National_Estuarine_Research_Reserve_full_res_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Estero_Bay_Aquatic_Preserve_full_res_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Guana_River_Marsh_Aquatic_Preserve_full_res_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Butler_Beach_full_res_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Fort_Matanzas_full_res_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Guana_River_full_res_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Pellicer_Flats_full_res_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Salt_Run_full_res_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_St_Augustine_full_res_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Tolomato_River_full_res_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_full_res_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Indian_River-Vero_Beach_to_Ft._Pierce_Aquatic_Preserve_full_res_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Jensen_Beach_to_Jupiter_Inlet_Aquatic_Preserve_full_res_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Lemon_Bay_Aquatic_Preserve_full_res_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Pine_Island_Sound_Aquatic_Preserve_full_res_depth_map.tif</t>
+  </si>
+  <si>
+    <t>Full resolution GeoTiff files with depth information</t>
+  </si>
+  <si>
+    <t>Apalachicola_Bay_Aquatic_Preserve_Density_depth.png</t>
+  </si>
+  <si>
+    <t>Apalachicola_Bay_Aquatic_Preserve_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Apalachicola_Bay_Aquatic_Preserve_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>Apalachicola_Bay_Aquatic_Preserve_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>Apalachicola_Bay_Aquatic_Preserve_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Apalachicola_Bay_Aquatic_Preserve_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>Apalachicola_Bay_Aquatic_Preserve_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>Apalachicola_Bay_Aquatic_Preserve_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Apalachicola_Bay_Aquatic_Preserve_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>Apalachicola_National_Estuarine_Research_Reserve_Density_depth.png</t>
+  </si>
+  <si>
+    <t>Apalachicola_National_Estuarine_Research_Reserve_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Apalachicola_National_Estuarine_Research_Reserve_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>Apalachicola_National_Estuarine_Research_Reserve_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>Apalachicola_National_Estuarine_Research_Reserve_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Apalachicola_National_Estuarine_Research_Reserve_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>Apalachicola_National_Estuarine_Research_Reserve_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>Apalachicola_National_Estuarine_Research_Reserve_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Apalachicola_National_Estuarine_Research_Reserve_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>Estero_Bay_Aquatic_Preserve_Density_depth.png</t>
+  </si>
+  <si>
+    <t>Estero_Bay_Aquatic_Preserve_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Estero_Bay_Aquatic_Preserve_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>Estero_Bay_Aquatic_Preserve_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>Estero_Bay_Aquatic_Preserve_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Estero_Bay_Aquatic_Preserve_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>Estero_Bay_Aquatic_Preserve_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>Estero_Bay_Aquatic_Preserve_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Estero_Bay_Aquatic_Preserve_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_River_Marsh_Aquatic_Preserve_Density_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_River_Marsh_Aquatic_Preserve_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_River_Marsh_Aquatic_Preserve_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_River_Marsh_Aquatic_Preserve_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_River_Marsh_Aquatic_Preserve_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_River_Marsh_Aquatic_Preserve_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_River_Marsh_Aquatic_Preserve_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_River_Marsh_Aquatic_Preserve_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_River_Marsh_Aquatic_Preserve_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Butler_Beach_Density_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Butler_Beach_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Butler_Beach_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Butler_Beach_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Butler_Beach_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Butler_Beach_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Butler_Beach_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Butler_Beach_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Butler_Beach_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Fort_Matanzas_Density_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Fort_Matanzas_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Fort_Matanzas_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Fort_Matanzas_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Fort_Matanzas_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Fort_Matanzas_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Fort_Matanzas_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Fort_Matanzas_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Fort_Matanzas_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Guana_River_Density_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Guana_River_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Guana_River_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Guana_River_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Guana_River_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Guana_River_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Guana_River_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Guana_River_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Guana_River_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Pellicer_Flats_Density_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Pellicer_Flats_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Pellicer_Flats_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Pellicer_Flats_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Pellicer_Flats_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Pellicer_Flats_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Pellicer_Flats_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Pellicer_Flats_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Pellicer_Flats_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Salt_Run_Density_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Salt_Run_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Salt_Run_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Salt_Run_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Salt_Run_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Salt_Run_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Salt_Run_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Salt_Run_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Salt_Run_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_St_Augustine_Density_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_St_Augustine_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_St_Augustine_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_St_Augustine_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_St_Augustine_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_St_Augustine_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_St_Augustine_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_St_Augustine_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_St_Augustine_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Tolomato_River_Density_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Tolomato_River_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Tolomato_River_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Tolomato_River_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Tolomato_River_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Tolomato_River_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Tolomato_River_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Tolomato_River_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Guana_Tolomato_Matanzas_National_Estuarine_Research_Reserve_Tolomato_River_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>Indian_River-Vero_Beach_to_Ft._Pierce_Aquatic_Preserve_Density_depth.png</t>
+  </si>
+  <si>
+    <t>Indian_River-Vero_Beach_to_Ft._Pierce_Aquatic_Preserve_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Indian_River-Vero_Beach_to_Ft._Pierce_Aquatic_Preserve_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>Indian_River-Vero_Beach_to_Ft._Pierce_Aquatic_Preserve_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>Indian_River-Vero_Beach_to_Ft._Pierce_Aquatic_Preserve_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Indian_River-Vero_Beach_to_Ft._Pierce_Aquatic_Preserve_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>Indian_River-Vero_Beach_to_Ft._Pierce_Aquatic_Preserve_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>Indian_River-Vero_Beach_to_Ft._Pierce_Aquatic_Preserve_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Indian_River-Vero_Beach_to_Ft._Pierce_Aquatic_Preserve_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>Lemon_Bay_Aquatic_Preserve_Density_depth.png</t>
+  </si>
+  <si>
+    <t>Lemon_Bay_Aquatic_Preserve_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Lemon_Bay_Aquatic_Preserve_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>Lemon_Bay_Aquatic_Preserve_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>Lemon_Bay_Aquatic_Preserve_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Lemon_Bay_Aquatic_Preserve_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>Lemon_Bay_Aquatic_Preserve_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>Lemon_Bay_Aquatic_Preserve_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Lemon_Bay_Aquatic_Preserve_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>Pine_Island_Sound_Aquatic_Preserve_Density_depth.png</t>
+  </si>
+  <si>
+    <t>Pine_Island_Sound_Aquatic_Preserve_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Pine_Island_Sound_Aquatic_Preserve_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>Pine_Island_Sound_Aquatic_Preserve_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>Pine_Island_Sound_Aquatic_Preserve_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Pine_Island_Sound_Aquatic_Preserve_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>Pine_Island_Sound_Aquatic_Preserve_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>Pine_Island_Sound_Aquatic_Preserve_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>Pine_Island_Sound_Aquatic_Preserve_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>ABAP_Density_depth.png</t>
+  </si>
+  <si>
+    <t>ABAP_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>ABAP_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>ABAP_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>ABAP_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>ABAP_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>ABAP_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>ABAP_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>ABAP_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>ANERR_Density_depth.png</t>
+  </si>
+  <si>
+    <t>ANERR_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>ANERR_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>ANERR_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>ANERR_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>ANERR_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>ANERR_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>ANERR_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>ANERR_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>EBAP_Density_depth.png</t>
+  </si>
+  <si>
+    <t>EBAP_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>EBAP_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>EBAP_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>EBAP_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>EBAP_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>EBAP_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>EBAP_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>EBAP_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>GRMAP_Density_depth.png</t>
+  </si>
+  <si>
+    <t>GRMAP_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GRMAP_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>GRMAP_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>GRMAP_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GRMAP_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>GRMAP_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>GRMAP_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GRMAP_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>GTMNERRBB_Density_depth.png</t>
+  </si>
+  <si>
+    <t>GTMNERRBB_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GTMNERRBB_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>GTMNERRBB_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>GTMNERRBB_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GTMNERRBB_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>GTMNERRBB_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>GTMNERRBB_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GTMNERRBB_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>GTMNERRFM_Density_depth.png</t>
+  </si>
+  <si>
+    <t>GTMNERRFM_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GTMNERRFM_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>GTMNERRFM_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>GTMNERRFM_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GTMNERRFM_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>GTMNERRFM_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>GTMNERRFM_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GTMNERRFM_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>GTMNERRGR_Density_depth.png</t>
+  </si>
+  <si>
+    <t>GTMNERRGR_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GTMNERRGR_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>GTMNERRGR_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>GTMNERRGR_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GTMNERRGR_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>GTMNERRGR_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>GTMNERRGR_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GTMNERRGR_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>GTMNERRPF_Density_depth.png</t>
+  </si>
+  <si>
+    <t>GTMNERRPF_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GTMNERRPF_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>GTMNERRPF_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>GTMNERRPF_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GTMNERRPF_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>GTMNERRPF_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>GTMNERRPF_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GTMNERRPF_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>GTMNERRSA_Density_depth.png</t>
+  </si>
+  <si>
+    <t>GTMNERRSA_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GTMNERRSA_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>GTMNERRSA_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>GTMNERRSA_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GTMNERRSA_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>GTMNERRSA_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>GTMNERRSA_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GTMNERRSA_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>GTMNERRSR_Density_depth.png</t>
+  </si>
+  <si>
+    <t>GTMNERRSR_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GTMNERRSR_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>GTMNERRSR_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>GTMNERRSR_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GTMNERRSR_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>GTMNERRSR_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>GTMNERRSR_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GTMNERRSR_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>GTMNERRTR_Density_depth.png</t>
+  </si>
+  <si>
+    <t>GTMNERRTR_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GTMNERRTR_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>GTMNERRTR_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>GTMNERRTR_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GTMNERRTR_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>GTMNERRTR_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>GTMNERRTR_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>GTMNERRTR_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>IRVBFPAP_Density_depth.png</t>
+  </si>
+  <si>
+    <t>IRVBFPAP_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>IRVBFPAP_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>IRVBFPAP_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>IRVBFPAP_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>IRVBFPAP_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>IRVBFPAP_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>IRVBFPAP_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>IRVBFPAP_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>LBAP_Density_depth.png</t>
+  </si>
+  <si>
+    <t>LBAP_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>LBAP_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>LBAP_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>LBAP_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>LBAP_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>LBAP_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>LBAP_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>LBAP_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <t>PISAP_Density_depth.png</t>
+  </si>
+  <si>
+    <t>PISAP_Density_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>PISAP_Density_salinity.png</t>
+  </si>
+  <si>
+    <t>PISAP_Percent Live_depth.png</t>
+  </si>
+  <si>
+    <t>PISAP_Percent Live_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>PISAP_Percent Live_salinity.png</t>
+  </si>
+  <si>
+    <t>PISAP_Shell Height_depth.png</t>
+  </si>
+  <si>
+    <t>PISAP_Shell Height_dissolved_oxygen.png</t>
+  </si>
+  <si>
+    <t>PISAP_Shell Height_salinity.png</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Folder name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CZ529_Data_for_Shiny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; Link: https://drive.google.com/drive/folders/1D-fFOgEhiQs5_vGPXjsEBlnro4znt7b6?usp=share_link</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Folder name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CZ529_Task1_Full_Res_Depth_tiff_files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; Link: https://drive.google.com/drive/folders/1D-fFOgEhiQs5_vGPXjsEBlnro4znt7b6?usp=share_link</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Folder name:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CZ529_Task_1_covariate_results_plots</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; Link: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://drive.google.com/drive/folders/1mTEI8_LPIDmC8c6Q-Wl0Z09RN5OmmAJK?usp=sharing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Folder name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CZ529 Workflow Feedback Meeting 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; Link: https://drive.google.com/drive/folders/1mTEI8_LPIDmC8c6Q-Wl0Z09RN5OmmAJK?usp=sharing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Folder name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CZ529 Workflow Feedback Meeting 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; Link: Video, audio, transcripts and AI Companion summary of first set of meetings with stakeholders</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,6 +1485,25 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -204,7 +1527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -216,6 +1539,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,13 +1879,13 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="50.83203125" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="171.5" customWidth="1"/>
+    <col min="3" max="3" width="89.33203125" customWidth="1"/>
     <col min="4" max="4" width="75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -624,13 +1950,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -672,7 +1998,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -717,60 +2043,60 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1" t="s">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>434</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -778,13 +2104,2942 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCA1048-F348-9040-8C6B-7BA4406912BC}">
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="58.1640625" customWidth="1"/>
+    <col min="3" max="3" width="101.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E68E19-BB40-704C-8BD5-333732E95E39}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="32.83203125" customWidth="1"/>
+    <col min="3" max="3" width="99.33203125" customWidth="1"/>
+    <col min="4" max="4" width="55.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4E8C25-8465-4843-98E5-306DC32ECB64}">
+  <dimension ref="A1:D127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D127"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="40.1640625" customWidth="1"/>
+    <col min="3" max="3" width="92" customWidth="1"/>
+    <col min="4" max="4" width="64" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C15" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C16" t="s">
+        <v>193</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>320</v>
+      </c>
+      <c r="C17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>321</v>
+      </c>
+      <c r="C18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>322</v>
+      </c>
+      <c r="C19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>323</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>324</v>
+      </c>
+      <c r="C21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>325</v>
+      </c>
+      <c r="C22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>326</v>
+      </c>
+      <c r="C23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>327</v>
+      </c>
+      <c r="C24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>328</v>
+      </c>
+      <c r="C25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>330</v>
+      </c>
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>331</v>
+      </c>
+      <c r="C28" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>332</v>
+      </c>
+      <c r="C29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>333</v>
+      </c>
+      <c r="C30" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>334</v>
+      </c>
+      <c r="C31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>335</v>
+      </c>
+      <c r="C32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>336</v>
+      </c>
+      <c r="C33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>337</v>
+      </c>
+      <c r="C34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>338</v>
+      </c>
+      <c r="C35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>339</v>
+      </c>
+      <c r="C36" t="s">
+        <v>213</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>340</v>
+      </c>
+      <c r="C37" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>341</v>
+      </c>
+      <c r="C38" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>342</v>
+      </c>
+      <c r="C39" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>343</v>
+      </c>
+      <c r="C40" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>344</v>
+      </c>
+      <c r="C41" t="s">
+        <v>218</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>345</v>
+      </c>
+      <c r="C42" t="s">
+        <v>219</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>346</v>
+      </c>
+      <c r="C43" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>347</v>
+      </c>
+      <c r="C44" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>348</v>
+      </c>
+      <c r="C45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>349</v>
+      </c>
+      <c r="C46" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>350</v>
+      </c>
+      <c r="C47" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>351</v>
+      </c>
+      <c r="C48" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>352</v>
+      </c>
+      <c r="C49" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>353</v>
+      </c>
+      <c r="C50" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>354</v>
+      </c>
+      <c r="C51" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>355</v>
+      </c>
+      <c r="C52" t="s">
+        <v>229</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>356</v>
+      </c>
+      <c r="C53" t="s">
+        <v>230</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>357</v>
+      </c>
+      <c r="C54" t="s">
+        <v>231</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>358</v>
+      </c>
+      <c r="C55" t="s">
+        <v>232</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>359</v>
+      </c>
+      <c r="C56" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>360</v>
+      </c>
+      <c r="C57" t="s">
+        <v>234</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>361</v>
+      </c>
+      <c r="C58" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>362</v>
+      </c>
+      <c r="C59" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>363</v>
+      </c>
+      <c r="C60" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>364</v>
+      </c>
+      <c r="C61" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>365</v>
+      </c>
+      <c r="C62" t="s">
+        <v>239</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>366</v>
+      </c>
+      <c r="C63" t="s">
+        <v>240</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>367</v>
+      </c>
+      <c r="C64" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>368</v>
+      </c>
+      <c r="C65" t="s">
+        <v>242</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>369</v>
+      </c>
+      <c r="C66" t="s">
+        <v>243</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>370</v>
+      </c>
+      <c r="C67" t="s">
+        <v>244</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>371</v>
+      </c>
+      <c r="C68" t="s">
+        <v>245</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>372</v>
+      </c>
+      <c r="C69" t="s">
+        <v>246</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>373</v>
+      </c>
+      <c r="C70" t="s">
+        <v>247</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>374</v>
+      </c>
+      <c r="C71" t="s">
+        <v>248</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
+        <v>375</v>
+      </c>
+      <c r="C72" t="s">
+        <v>249</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" t="s">
+        <v>376</v>
+      </c>
+      <c r="C73" t="s">
+        <v>250</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
+        <v>377</v>
+      </c>
+      <c r="C74" t="s">
+        <v>251</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
+        <v>378</v>
+      </c>
+      <c r="C75" t="s">
+        <v>252</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>379</v>
+      </c>
+      <c r="C76" t="s">
+        <v>253</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
+        <v>380</v>
+      </c>
+      <c r="C77" t="s">
+        <v>254</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>381</v>
+      </c>
+      <c r="C78" t="s">
+        <v>255</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>382</v>
+      </c>
+      <c r="C79" t="s">
+        <v>256</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>383</v>
+      </c>
+      <c r="C80" t="s">
+        <v>257</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
+        <v>384</v>
+      </c>
+      <c r="C81" t="s">
+        <v>258</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>385</v>
+      </c>
+      <c r="C82" t="s">
+        <v>259</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>386</v>
+      </c>
+      <c r="C83" t="s">
+        <v>260</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84" t="s">
+        <v>387</v>
+      </c>
+      <c r="C84" t="s">
+        <v>261</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
+        <v>388</v>
+      </c>
+      <c r="C85" t="s">
+        <v>262</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>389</v>
+      </c>
+      <c r="C86" t="s">
+        <v>263</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>390</v>
+      </c>
+      <c r="C87" t="s">
+        <v>264</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>391</v>
+      </c>
+      <c r="C88" t="s">
+        <v>265</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>392</v>
+      </c>
+      <c r="C89" t="s">
+        <v>266</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>393</v>
+      </c>
+      <c r="C90" t="s">
+        <v>267</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>394</v>
+      </c>
+      <c r="C91" t="s">
+        <v>268</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>395</v>
+      </c>
+      <c r="C92" t="s">
+        <v>269</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>396</v>
+      </c>
+      <c r="C93" t="s">
+        <v>270</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>397</v>
+      </c>
+      <c r="C94" t="s">
+        <v>271</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" t="s">
+        <v>398</v>
+      </c>
+      <c r="C95" t="s">
+        <v>272</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>399</v>
+      </c>
+      <c r="C96" t="s">
+        <v>273</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97" t="s">
+        <v>400</v>
+      </c>
+      <c r="C97" t="s">
+        <v>274</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>401</v>
+      </c>
+      <c r="C98" t="s">
+        <v>275</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
+        <v>402</v>
+      </c>
+      <c r="C99" t="s">
+        <v>276</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
+        <v>403</v>
+      </c>
+      <c r="C100" t="s">
+        <v>277</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>404</v>
+      </c>
+      <c r="C101" t="s">
+        <v>278</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>405</v>
+      </c>
+      <c r="C102" t="s">
+        <v>279</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>406</v>
+      </c>
+      <c r="C103" t="s">
+        <v>280</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>407</v>
+      </c>
+      <c r="C104" t="s">
+        <v>281</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
+        <v>408</v>
+      </c>
+      <c r="C105" t="s">
+        <v>282</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>409</v>
+      </c>
+      <c r="C106" t="s">
+        <v>283</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>410</v>
+      </c>
+      <c r="C107" t="s">
+        <v>284</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>411</v>
+      </c>
+      <c r="C108" t="s">
+        <v>285</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" t="s">
+        <v>412</v>
+      </c>
+      <c r="C109" t="s">
+        <v>286</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
+        <v>413</v>
+      </c>
+      <c r="C110" t="s">
+        <v>287</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
+        <v>414</v>
+      </c>
+      <c r="C111" t="s">
+        <v>288</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>415</v>
+      </c>
+      <c r="C112" t="s">
+        <v>289</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113" t="s">
+        <v>416</v>
+      </c>
+      <c r="C113" t="s">
+        <v>290</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>417</v>
+      </c>
+      <c r="C114" t="s">
+        <v>291</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>418</v>
+      </c>
+      <c r="C115" t="s">
+        <v>292</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116" t="s">
+        <v>419</v>
+      </c>
+      <c r="C116" t="s">
+        <v>293</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>420</v>
+      </c>
+      <c r="C117" t="s">
+        <v>294</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118" t="s">
+        <v>421</v>
+      </c>
+      <c r="C118" t="s">
+        <v>295</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
+        <v>422</v>
+      </c>
+      <c r="C119" t="s">
+        <v>296</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120" t="s">
+        <v>423</v>
+      </c>
+      <c r="C120" t="s">
+        <v>297</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>424</v>
+      </c>
+      <c r="C121" t="s">
+        <v>298</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>425</v>
+      </c>
+      <c r="C122" t="s">
+        <v>299</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>426</v>
+      </c>
+      <c r="C123" t="s">
+        <v>300</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
+        <v>427</v>
+      </c>
+      <c r="C124" t="s">
+        <v>301</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>428</v>
+      </c>
+      <c r="C125" t="s">
+        <v>302</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
+        <v>429</v>
+      </c>
+      <c r="C126" t="s">
+        <v>303</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127" t="s">
+        <v>430</v>
+      </c>
+      <c r="C127" t="s">
+        <v>304</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
